--- a/btpy/src/btpy/res/name_male_data.xlsx
+++ b/btpy/src/btpy/res/name_male_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1019">
   <si>
     <t>russian</t>
   </si>
@@ -1430,6 +1430,474 @@
     <t>Vishnu</t>
   </si>
   <si>
+    <t>Aakesh</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>Mayan</t>
+  </si>
+  <si>
+    <t>Rayaan</t>
+  </si>
+  <si>
+    <t>Vedant</t>
+  </si>
+  <si>
+    <t>Aanan</t>
+  </si>
+  <si>
+    <t>Charun</t>
+  </si>
+  <si>
+    <t>Devaj</t>
+  </si>
+  <si>
+    <t>Harsith</t>
+  </si>
+  <si>
+    <t>Ishir</t>
+  </si>
+  <si>
+    <t>Kanam</t>
+  </si>
+  <si>
+    <t>Mahit</t>
+  </si>
+  <si>
+    <t>Ojasvat</t>
+  </si>
+  <si>
+    <t>Purnit</t>
+  </si>
+  <si>
+    <t>Rodas</t>
+  </si>
+  <si>
+    <t>Ekansh</t>
+  </si>
+  <si>
+    <t>Jairaj</t>
+  </si>
+  <si>
+    <t>Onkar</t>
+  </si>
+  <si>
+    <t>Reyansh</t>
+  </si>
+  <si>
+    <t>Samesh</t>
+  </si>
+  <si>
+    <t>Viraj</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>Ahaan</t>
+  </si>
+  <si>
+    <t>Ansh</t>
+  </si>
+  <si>
+    <t>Arhaan</t>
+  </si>
+  <si>
+    <t>Arin</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Aryaman</t>
+  </si>
+  <si>
+    <t>Arnav</t>
+  </si>
+  <si>
+    <t>Avi</t>
+  </si>
+  <si>
+    <t>Ayaan</t>
+  </si>
+  <si>
+    <t>Azaan</t>
+  </si>
+  <si>
+    <t>Ayush</t>
+  </si>
+  <si>
+    <t>Bachittar</t>
+  </si>
+  <si>
+    <t>Bahadurjit</t>
+  </si>
+  <si>
+    <t>Balendra</t>
+  </si>
+  <si>
+    <t>Balhaar</t>
+  </si>
+  <si>
+    <t>Balvan</t>
+  </si>
+  <si>
+    <t>Banjeet</t>
+  </si>
+  <si>
+    <t>Bhavin</t>
+  </si>
+  <si>
+    <t>Brijesh</t>
+  </si>
+  <si>
+    <t>Chakradev</t>
+  </si>
+  <si>
+    <t>Champak</t>
+  </si>
+  <si>
+    <t>Chanakya</t>
+  </si>
+  <si>
+    <t>Chandran</t>
+  </si>
+  <si>
+    <t>Chandresh</t>
+  </si>
+  <si>
+    <t>Charan</t>
+  </si>
+  <si>
+    <t>Chatresh</t>
+  </si>
+  <si>
+    <t>Chatura</t>
+  </si>
+  <si>
+    <t>Daksh</t>
+  </si>
+  <si>
+    <t>Dakshesh</t>
+  </si>
+  <si>
+    <t>Dalbir</t>
+  </si>
+  <si>
+    <t>Darpan</t>
+  </si>
+  <si>
+    <t>Darsh</t>
+  </si>
+  <si>
+    <t>Darshit</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Devansh</t>
+  </si>
+  <si>
+    <t>Dhairya</t>
+  </si>
+  <si>
+    <t>Dhanuk</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Divit</t>
+  </si>
+  <si>
+    <t>Eeshan</t>
+  </si>
+  <si>
+    <t>Ekalinga</t>
+  </si>
+  <si>
+    <t>Ekapad</t>
+  </si>
+  <si>
+    <t>Faiyaz</t>
+  </si>
+  <si>
+    <t>Faraj</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>Faras</t>
+  </si>
+  <si>
+    <t>Fariq</t>
+  </si>
+  <si>
+    <t>Faris</t>
+  </si>
+  <si>
+    <t>Fitan</t>
+  </si>
+  <si>
+    <t>Gatik</t>
+  </si>
+  <si>
+    <t>Gaurang</t>
+  </si>
+  <si>
+    <t>Gauransh</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Fiyaz</t>
+  </si>
+  <si>
+    <t>Girik</t>
+  </si>
+  <si>
+    <t>Girindra</t>
+  </si>
+  <si>
+    <t>Girish</t>
+  </si>
+  <si>
+    <t>Gopal</t>
+  </si>
+  <si>
+    <t>Gunet</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Harshil</t>
+  </si>
+  <si>
+    <t>Hunar</t>
+  </si>
+  <si>
+    <t>Ikbal</t>
+  </si>
+  <si>
+    <t>Imaran</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Ishwar</t>
+  </si>
+  <si>
+    <t>Jagat</t>
+  </si>
+  <si>
+    <t>Jagdish</t>
+  </si>
+  <si>
+    <t>Jai</t>
+  </si>
+  <si>
+    <t>Jatin</t>
+  </si>
+  <si>
+    <t>Jeet</t>
+  </si>
+  <si>
+    <t>Kabir</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Kiaan</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Krishiv</t>
+  </si>
+  <si>
+    <t>Laban</t>
+  </si>
+  <si>
+    <t>Laksh</t>
+  </si>
+  <si>
+    <t>Lakshay</t>
+  </si>
+  <si>
+    <t>Lakshit</t>
+  </si>
+  <si>
+    <t>Lohit</t>
+  </si>
+  <si>
+    <t>Manan</t>
+  </si>
+  <si>
+    <t>Manav</t>
+  </si>
+  <si>
+    <t>Manbir</t>
+  </si>
+  <si>
+    <t>Manthan</t>
+  </si>
+  <si>
+    <t>Moksh</t>
+  </si>
+  <si>
+    <t>Neel</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>Nihal</t>
+  </si>
+  <si>
+    <t>Nimit</t>
+  </si>
+  <si>
+    <t>Nirvaan</t>
+  </si>
+  <si>
+    <t>Nitesh</t>
+  </si>
+  <si>
+    <t>Orinder</t>
+  </si>
+  <si>
+    <t>Parv</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>Pranay</t>
+  </si>
+  <si>
+    <t>Pratham</t>
+  </si>
+  <si>
+    <t>Qadim</t>
+  </si>
+  <si>
+    <t>Qarin</t>
+  </si>
+  <si>
+    <t>Qasin</t>
+  </si>
+  <si>
+    <t>Rachit</t>
+  </si>
+  <si>
+    <t>Raghav</t>
+  </si>
+  <si>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t>Riaan</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Ritvik</t>
+  </si>
+  <si>
+    <t>Ronith</t>
+  </si>
+  <si>
+    <t>Saatvik</t>
+  </si>
+  <si>
+    <t>Shaan</t>
+  </si>
+  <si>
+    <t>Sarthak</t>
+  </si>
+  <si>
+    <t>Siddharth</t>
+  </si>
+  <si>
+    <t>Sohail</t>
+  </si>
+  <si>
+    <t>Suveer</t>
+  </si>
+  <si>
+    <t>Tanay</t>
+  </si>
+  <si>
+    <t>Tanish</t>
+  </si>
+  <si>
+    <t>Tarak</t>
+  </si>
+  <si>
+    <t>Tanmay</t>
+  </si>
+  <si>
+    <t>Ujjwal</t>
+  </si>
+  <si>
+    <t>Udarsh</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>Veer</t>
+  </si>
+  <si>
+    <t>Vihaan</t>
+  </si>
+  <si>
+    <t>Wahab</t>
+  </si>
+  <si>
+    <t>Warinder</t>
+  </si>
+  <si>
+    <t>Yagnesh</t>
+  </si>
+  <si>
+    <t>Yatan</t>
+  </si>
+  <si>
+    <t>Zaid</t>
+  </si>
+  <si>
+    <t>Zain</t>
+  </si>
+  <si>
+    <t>Zashil</t>
+  </si>
+  <si>
+    <t>Zayan</t>
+  </si>
+  <si>
+    <t>Zehaan</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
     <t>spanish</t>
   </si>
   <si>
@@ -1556,9 +2024,6 @@
     <t>Teo</t>
   </si>
   <si>
-    <t>Isaac</t>
-  </si>
-  <si>
     <t>Luka</t>
   </si>
   <si>
@@ -2442,6 +2907,183 @@
   </si>
   <si>
     <t>Cristiano</t>
+  </si>
+  <si>
+    <t>slavic</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>Davud</t>
+  </si>
+  <si>
+    <t>Isa</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Feda</t>
+  </si>
+  <si>
+    <t>Mak</t>
+  </si>
+  <si>
+    <t>Rejan</t>
+  </si>
+  <si>
+    <t>Kan</t>
+  </si>
+  <si>
+    <t>Andrej</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Dal</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Vasilije</t>
+  </si>
+  <si>
+    <t>Pavle</t>
+  </si>
+  <si>
+    <t>Aleksej</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Jovan</t>
+  </si>
+  <si>
+    <t>Aleksa</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Adin</t>
+  </si>
+  <si>
+    <t>Dzan</t>
+  </si>
+  <si>
+    <t>Daris</t>
+  </si>
+  <si>
+    <t>Eman</t>
+  </si>
+  <si>
+    <t>Indio</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Tarik</t>
+  </si>
+  <si>
+    <t>Emin</t>
+  </si>
+  <si>
+    <t>Rejjan</t>
+  </si>
+  <si>
+    <t>Vedad</t>
+  </si>
+  <si>
+    <t>Ajnur</t>
+  </si>
+  <si>
+    <t>Jusuf</t>
+  </si>
+  <si>
+    <t>Kenam</t>
+  </si>
+  <si>
+    <t>Kerim</t>
+  </si>
+  <si>
+    <t>Bejamin</t>
+  </si>
+  <si>
+    <t>Apoloniusz</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Lukasz</t>
+  </si>
+  <si>
+    <t>Maurycy</t>
+  </si>
+  <si>
+    <t>Pawel</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Tomasz</t>
+  </si>
+  <si>
+    <t>Krzysztof</t>
+  </si>
+  <si>
+    <t>Andrzej</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Stanislaw</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Grzegorz</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Mariusz</t>
+  </si>
+  <si>
+    <t>Dariusz</t>
+  </si>
+  <si>
+    <t>Zbigniew</t>
+  </si>
+  <si>
+    <t>Jerzy</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
   </si>
 </sst>
 </file>
@@ -3385,10 +4027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:GS15"/>
+  <dimension ref="A2:GS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="CE16" sqref="CE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4883,7 +5525,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:171">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -4916,32 +5558,512 @@
       </c>
       <c r="K9" t="s">
         <v>466</v>
+      </c>
+      <c r="L9" t="s">
+        <v>467</v>
+      </c>
+      <c r="M9" t="s">
+        <v>468</v>
+      </c>
+      <c r="N9" t="s">
+        <v>469</v>
+      </c>
+      <c r="O9" t="s">
+        <v>470</v>
+      </c>
+      <c r="P9" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>472</v>
+      </c>
+      <c r="R9" t="s">
+        <v>473</v>
+      </c>
+      <c r="S9" t="s">
+        <v>474</v>
+      </c>
+      <c r="T9" t="s">
+        <v>475</v>
+      </c>
+      <c r="U9" t="s">
+        <v>476</v>
+      </c>
+      <c r="V9" t="s">
+        <v>477</v>
+      </c>
+      <c r="W9" t="s">
+        <v>478</v>
+      </c>
+      <c r="X9" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>496</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>499</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>500</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>501</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>502</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>503</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>504</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>507</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>508</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>509</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>510</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>511</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>512</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>513</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>514</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>515</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>516</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>517</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>518</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>519</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>520</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>521</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>522</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>523</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>524</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>525</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>527</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>528</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>529</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>530</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>531</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>532</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>533</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>534</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>535</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>536</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>537</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>539</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>540</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>541</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>542</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>543</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>539</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>544</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>545</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>546</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>547</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>548</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>549</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>550</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>551</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>552</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>553</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>554</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>555</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>556</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>557</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>558</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>559</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>194</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>560</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>561</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>562</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>563</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>564</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>563</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>564</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>565</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>566</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>567</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>568</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>569</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>570</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>571</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>572</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>573</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>574</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>575</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>576</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>577</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>578</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>579</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>580</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>581</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>582</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>583</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>584</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>585</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>586</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>587</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>588</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>589</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>590</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>591</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>592</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>593</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>594</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>595</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>596</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>597</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>598</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>599</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>600</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>601</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>602</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>603</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>604</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>605</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>606</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>607</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>608</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>609</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>610</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>611</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>612</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>613</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>614</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>615</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>616</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>617</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>618</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>619</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>620</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>621</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:201">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>623</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>624</v>
       </c>
       <c r="D10" t="s">
         <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>469</v>
+        <v>625</v>
       </c>
       <c r="F10" t="s">
-        <v>470</v>
+        <v>626</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>471</v>
+        <v>627</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
@@ -4950,7 +6072,7 @@
         <v>334</v>
       </c>
       <c r="K10" t="s">
-        <v>472</v>
+        <v>628</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -4959,73 +6081,73 @@
         <v>228</v>
       </c>
       <c r="N10" t="s">
-        <v>473</v>
+        <v>629</v>
       </c>
       <c r="O10" t="s">
-        <v>474</v>
+        <v>630</v>
       </c>
       <c r="P10" t="s">
-        <v>475</v>
+        <v>631</v>
       </c>
       <c r="Q10" t="s">
-        <v>476</v>
+        <v>632</v>
       </c>
       <c r="R10" t="s">
-        <v>477</v>
+        <v>633</v>
       </c>
       <c r="S10" t="s">
-        <v>478</v>
+        <v>634</v>
       </c>
       <c r="T10" t="s">
         <v>384</v>
       </c>
       <c r="U10" t="s">
-        <v>479</v>
+        <v>635</v>
       </c>
       <c r="V10" t="s">
-        <v>480</v>
+        <v>636</v>
       </c>
       <c r="W10" t="s">
         <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>481</v>
+        <v>637</v>
       </c>
       <c r="Y10" t="s">
-        <v>482</v>
+        <v>638</v>
       </c>
       <c r="Z10" t="s">
         <v>230</v>
       </c>
       <c r="AA10" t="s">
-        <v>483</v>
+        <v>639</v>
       </c>
       <c r="AB10" t="s">
         <v>266</v>
       </c>
       <c r="AC10" t="s">
-        <v>484</v>
+        <v>640</v>
       </c>
       <c r="AD10" t="s">
-        <v>485</v>
+        <v>641</v>
       </c>
       <c r="AE10" t="s">
-        <v>486</v>
+        <v>642</v>
       </c>
       <c r="AF10" t="s">
-        <v>487</v>
+        <v>643</v>
       </c>
       <c r="AG10" t="s">
-        <v>488</v>
+        <v>644</v>
       </c>
       <c r="AH10" t="s">
-        <v>489</v>
+        <v>645</v>
       </c>
       <c r="AI10" t="s">
-        <v>490</v>
+        <v>646</v>
       </c>
       <c r="AJ10" t="s">
-        <v>491</v>
+        <v>647</v>
       </c>
       <c r="AK10" t="s">
         <v>444</v>
@@ -5037,76 +6159,76 @@
         <v>191</v>
       </c>
       <c r="AN10" t="s">
-        <v>492</v>
+        <v>648</v>
       </c>
       <c r="AO10" t="s">
-        <v>493</v>
+        <v>649</v>
       </c>
       <c r="AP10" t="s">
         <v>361</v>
       </c>
       <c r="AQ10" t="s">
-        <v>494</v>
+        <v>650</v>
       </c>
       <c r="AR10" t="s">
-        <v>495</v>
+        <v>651</v>
       </c>
       <c r="AS10" t="s">
-        <v>496</v>
+        <v>652</v>
       </c>
       <c r="AT10" t="s">
-        <v>497</v>
+        <v>653</v>
       </c>
       <c r="AU10" t="s">
         <v>265</v>
       </c>
       <c r="AV10" t="s">
-        <v>498</v>
+        <v>654</v>
       </c>
       <c r="AW10" t="s">
-        <v>499</v>
+        <v>655</v>
       </c>
       <c r="AX10" t="s">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="AY10" t="s">
-        <v>501</v>
+        <v>657</v>
       </c>
       <c r="AZ10" t="s">
-        <v>502</v>
+        <v>658</v>
       </c>
       <c r="BA10" t="s">
-        <v>503</v>
+        <v>659</v>
       </c>
       <c r="BB10" t="s">
-        <v>504</v>
+        <v>660</v>
       </c>
       <c r="BC10" t="s">
-        <v>505</v>
+        <v>661</v>
       </c>
       <c r="BD10" t="s">
-        <v>506</v>
+        <v>662</v>
       </c>
       <c r="BE10" t="s">
-        <v>507</v>
+        <v>663</v>
       </c>
       <c r="BF10" t="s">
-        <v>508</v>
+        <v>664</v>
       </c>
       <c r="BG10" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="BH10" t="s">
-        <v>510</v>
+        <v>665</v>
       </c>
       <c r="BI10" t="s">
-        <v>511</v>
+        <v>666</v>
       </c>
       <c r="BJ10" t="s">
-        <v>512</v>
+        <v>667</v>
       </c>
       <c r="BK10" t="s">
-        <v>513</v>
+        <v>668</v>
       </c>
       <c r="BL10" t="s">
         <v>185</v>
@@ -5115,923 +6237,1174 @@
         <v>291</v>
       </c>
       <c r="BN10" t="s">
-        <v>514</v>
+        <v>669</v>
       </c>
       <c r="BO10" t="s">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="BP10" t="s">
-        <v>516</v>
+        <v>671</v>
       </c>
       <c r="BQ10" t="s">
-        <v>517</v>
+        <v>672</v>
       </c>
       <c r="BR10" t="s">
-        <v>518</v>
+        <v>673</v>
       </c>
       <c r="BS10" t="s">
-        <v>519</v>
+        <v>674</v>
       </c>
       <c r="BT10" t="s">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="BU10" t="s">
-        <v>521</v>
+        <v>676</v>
       </c>
       <c r="BV10" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="BW10" t="s">
-        <v>523</v>
+        <v>678</v>
       </c>
       <c r="BX10" t="s">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="BY10" t="s">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="BZ10" t="s">
         <v>240</v>
       </c>
       <c r="CA10" t="s">
-        <v>526</v>
+        <v>681</v>
       </c>
       <c r="CB10" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="CC10" t="s">
-        <v>528</v>
+        <v>683</v>
       </c>
       <c r="CD10" t="s">
-        <v>529</v>
+        <v>684</v>
       </c>
       <c r="CE10" t="s">
-        <v>530</v>
+        <v>685</v>
       </c>
       <c r="CF10" t="s">
-        <v>531</v>
+        <v>686</v>
       </c>
       <c r="CG10" t="s">
-        <v>532</v>
+        <v>687</v>
       </c>
       <c r="CH10" t="s">
-        <v>533</v>
+        <v>688</v>
       </c>
       <c r="CI10" t="s">
-        <v>534</v>
+        <v>689</v>
       </c>
       <c r="CJ10" t="s">
-        <v>535</v>
+        <v>690</v>
       </c>
       <c r="CK10" t="s">
-        <v>536</v>
+        <v>691</v>
       </c>
       <c r="CL10" t="s">
-        <v>537</v>
+        <v>692</v>
       </c>
       <c r="CM10" t="s">
-        <v>538</v>
+        <v>693</v>
       </c>
       <c r="CN10" t="s">
-        <v>539</v>
+        <v>694</v>
       </c>
       <c r="CO10" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
       <c r="CP10" t="s">
         <v>223</v>
       </c>
       <c r="CQ10" t="s">
-        <v>541</v>
+        <v>696</v>
       </c>
       <c r="CR10" t="s">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="CS10" t="s">
-        <v>543</v>
+        <v>698</v>
       </c>
       <c r="CT10" t="s">
-        <v>544</v>
+        <v>699</v>
       </c>
       <c r="CU10" t="s">
-        <v>545</v>
+        <v>700</v>
       </c>
       <c r="CV10" t="s">
-        <v>546</v>
+        <v>701</v>
       </c>
       <c r="CW10" t="s">
-        <v>547</v>
+        <v>702</v>
       </c>
       <c r="CX10" t="s">
-        <v>548</v>
+        <v>703</v>
       </c>
       <c r="CY10" t="s">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="CZ10" t="s">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="DA10" t="s">
-        <v>551</v>
+        <v>706</v>
       </c>
       <c r="DB10" t="s">
-        <v>552</v>
+        <v>707</v>
       </c>
       <c r="DC10" t="s">
-        <v>553</v>
+        <v>708</v>
       </c>
       <c r="DD10" t="s">
-        <v>554</v>
+        <v>709</v>
       </c>
       <c r="DE10" t="s">
-        <v>555</v>
+        <v>710</v>
       </c>
       <c r="DF10" t="s">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="DG10" t="s">
-        <v>557</v>
+        <v>712</v>
       </c>
       <c r="DH10" t="s">
-        <v>558</v>
+        <v>713</v>
       </c>
       <c r="DI10" t="s">
-        <v>559</v>
+        <v>714</v>
       </c>
       <c r="DJ10" t="s">
-        <v>560</v>
+        <v>715</v>
       </c>
       <c r="DK10" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="DL10" t="s">
-        <v>562</v>
+        <v>717</v>
       </c>
       <c r="DM10" t="s">
-        <v>563</v>
+        <v>718</v>
       </c>
       <c r="DN10" t="s">
-        <v>564</v>
+        <v>719</v>
       </c>
       <c r="DO10" t="s">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="DP10" t="s">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="DQ10" t="s">
-        <v>567</v>
+        <v>722</v>
       </c>
       <c r="DR10" t="s">
-        <v>568</v>
+        <v>723</v>
       </c>
       <c r="DS10" t="s">
-        <v>569</v>
+        <v>724</v>
       </c>
       <c r="DT10" t="s">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="DU10" t="s">
-        <v>571</v>
+        <v>726</v>
       </c>
       <c r="DV10" t="s">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="DW10" t="s">
-        <v>573</v>
+        <v>728</v>
       </c>
       <c r="DX10" t="s">
-        <v>574</v>
+        <v>729</v>
       </c>
       <c r="DY10" t="s">
         <v>280</v>
       </c>
       <c r="DZ10" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="EA10" t="s">
-        <v>576</v>
+        <v>731</v>
       </c>
       <c r="EB10" t="s">
-        <v>577</v>
+        <v>732</v>
       </c>
       <c r="EC10" t="s">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="ED10" t="s">
-        <v>579</v>
+        <v>734</v>
       </c>
       <c r="EE10" t="s">
-        <v>580</v>
+        <v>735</v>
       </c>
       <c r="EF10" t="s">
-        <v>581</v>
+        <v>736</v>
       </c>
       <c r="EG10" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="EH10" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="EI10" t="s">
-        <v>584</v>
+        <v>739</v>
       </c>
       <c r="EJ10" t="s">
-        <v>585</v>
+        <v>740</v>
       </c>
       <c r="EK10" t="s">
-        <v>586</v>
+        <v>741</v>
       </c>
       <c r="EL10" t="s">
-        <v>587</v>
+        <v>742</v>
       </c>
       <c r="EM10" t="s">
-        <v>588</v>
+        <v>743</v>
       </c>
       <c r="EN10" t="s">
-        <v>589</v>
+        <v>744</v>
       </c>
       <c r="EO10" t="s">
         <v>58</v>
       </c>
       <c r="EP10" t="s">
-        <v>590</v>
+        <v>745</v>
       </c>
       <c r="EQ10" t="s">
-        <v>591</v>
+        <v>746</v>
       </c>
       <c r="ER10" t="s">
-        <v>592</v>
+        <v>747</v>
       </c>
       <c r="ES10" t="s">
-        <v>593</v>
+        <v>748</v>
       </c>
       <c r="ET10" t="s">
-        <v>594</v>
+        <v>749</v>
       </c>
       <c r="EU10" t="s">
-        <v>595</v>
+        <v>750</v>
       </c>
       <c r="EV10" t="s">
-        <v>596</v>
+        <v>751</v>
       </c>
       <c r="EW10" t="s">
-        <v>597</v>
+        <v>752</v>
       </c>
       <c r="EX10" t="s">
-        <v>598</v>
+        <v>753</v>
       </c>
       <c r="EY10" t="s">
-        <v>599</v>
+        <v>754</v>
       </c>
       <c r="EZ10" t="s">
-        <v>600</v>
+        <v>755</v>
       </c>
       <c r="FA10" t="s">
-        <v>601</v>
+        <v>756</v>
       </c>
       <c r="FB10" t="s">
-        <v>602</v>
+        <v>757</v>
       </c>
       <c r="FC10" t="s">
-        <v>603</v>
+        <v>758</v>
       </c>
       <c r="FD10" t="s">
-        <v>604</v>
+        <v>759</v>
       </c>
       <c r="FE10" t="s">
         <v>281</v>
       </c>
       <c r="FF10" t="s">
-        <v>605</v>
+        <v>760</v>
       </c>
       <c r="FG10" t="s">
-        <v>606</v>
+        <v>761</v>
       </c>
       <c r="FH10" t="s">
-        <v>607</v>
+        <v>762</v>
       </c>
       <c r="FI10" t="s">
-        <v>608</v>
+        <v>763</v>
       </c>
       <c r="FJ10" t="s">
-        <v>609</v>
+        <v>764</v>
       </c>
       <c r="FK10" t="s">
-        <v>610</v>
+        <v>765</v>
       </c>
       <c r="FL10" t="s">
-        <v>611</v>
+        <v>766</v>
       </c>
       <c r="FM10" t="s">
-        <v>612</v>
+        <v>767</v>
       </c>
       <c r="FN10" t="s">
-        <v>613</v>
+        <v>768</v>
       </c>
       <c r="FO10" t="s">
-        <v>614</v>
+        <v>769</v>
       </c>
       <c r="FP10" t="s">
-        <v>615</v>
+        <v>770</v>
       </c>
       <c r="FQ10" t="s">
-        <v>616</v>
+        <v>771</v>
       </c>
       <c r="FR10" t="s">
-        <v>617</v>
+        <v>772</v>
       </c>
       <c r="FS10" t="s">
-        <v>618</v>
+        <v>773</v>
       </c>
       <c r="FT10" t="s">
-        <v>619</v>
+        <v>774</v>
       </c>
       <c r="FU10" t="s">
         <v>242</v>
       </c>
       <c r="FV10" t="s">
-        <v>620</v>
+        <v>775</v>
       </c>
       <c r="FW10" t="s">
-        <v>621</v>
+        <v>776</v>
       </c>
       <c r="FX10" t="s">
-        <v>622</v>
+        <v>777</v>
       </c>
       <c r="FY10" t="s">
-        <v>623</v>
+        <v>778</v>
       </c>
       <c r="FZ10" t="s">
-        <v>624</v>
+        <v>779</v>
       </c>
       <c r="GA10" t="s">
-        <v>625</v>
+        <v>780</v>
       </c>
       <c r="GB10" t="s">
-        <v>626</v>
+        <v>781</v>
       </c>
       <c r="GC10" t="s">
-        <v>627</v>
+        <v>782</v>
       </c>
       <c r="GD10" t="s">
-        <v>628</v>
+        <v>783</v>
       </c>
       <c r="GE10" t="s">
-        <v>629</v>
+        <v>784</v>
       </c>
       <c r="GF10" t="s">
-        <v>630</v>
+        <v>785</v>
       </c>
       <c r="GG10" t="s">
-        <v>631</v>
+        <v>786</v>
       </c>
       <c r="GH10" t="s">
-        <v>632</v>
+        <v>787</v>
       </c>
       <c r="GI10" t="s">
-        <v>633</v>
+        <v>788</v>
       </c>
       <c r="GJ10" t="s">
-        <v>634</v>
+        <v>789</v>
       </c>
       <c r="GK10" t="s">
-        <v>635</v>
+        <v>790</v>
       </c>
       <c r="GL10" t="s">
-        <v>636</v>
+        <v>791</v>
       </c>
       <c r="GM10" t="s">
-        <v>637</v>
+        <v>792</v>
       </c>
       <c r="GN10" t="s">
-        <v>638</v>
+        <v>793</v>
       </c>
       <c r="GO10" t="s">
-        <v>639</v>
+        <v>794</v>
       </c>
       <c r="GP10" t="s">
-        <v>640</v>
+        <v>795</v>
       </c>
       <c r="GQ10" t="s">
-        <v>641</v>
+        <v>796</v>
       </c>
       <c r="GR10" t="s">
-        <v>642</v>
+        <v>797</v>
       </c>
       <c r="GS10" t="s">
-        <v>643</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>644</v>
+        <v>799</v>
       </c>
       <c r="B11" t="s">
-        <v>645</v>
+        <v>800</v>
       </c>
       <c r="C11" t="s">
-        <v>646</v>
+        <v>801</v>
       </c>
       <c r="D11" t="s">
-        <v>647</v>
+        <v>802</v>
       </c>
       <c r="E11" t="s">
-        <v>648</v>
+        <v>803</v>
       </c>
       <c r="F11" t="s">
-        <v>649</v>
+        <v>804</v>
       </c>
       <c r="G11" t="s">
-        <v>650</v>
+        <v>805</v>
       </c>
       <c r="H11" t="s">
-        <v>651</v>
+        <v>806</v>
       </c>
       <c r="I11" t="s">
-        <v>652</v>
+        <v>807</v>
       </c>
       <c r="J11" t="s">
-        <v>653</v>
+        <v>808</v>
       </c>
       <c r="K11" t="s">
-        <v>654</v>
+        <v>809</v>
       </c>
       <c r="L11" t="s">
-        <v>655</v>
+        <v>810</v>
       </c>
       <c r="M11" t="s">
-        <v>656</v>
+        <v>811</v>
       </c>
       <c r="N11" t="s">
-        <v>657</v>
+        <v>812</v>
       </c>
       <c r="O11" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="P11" t="s">
-        <v>659</v>
+        <v>814</v>
       </c>
       <c r="Q11" t="s">
-        <v>660</v>
+        <v>815</v>
       </c>
       <c r="R11" t="s">
-        <v>661</v>
+        <v>816</v>
       </c>
       <c r="S11" t="s">
-        <v>662</v>
+        <v>817</v>
       </c>
       <c r="T11" t="s">
-        <v>663</v>
+        <v>818</v>
       </c>
       <c r="U11" t="s">
-        <v>664</v>
+        <v>819</v>
       </c>
       <c r="V11" t="s">
         <v>214</v>
       </c>
       <c r="W11" t="s">
-        <v>665</v>
+        <v>820</v>
       </c>
       <c r="X11" t="s">
-        <v>666</v>
+        <v>821</v>
       </c>
       <c r="Y11" t="s">
-        <v>667</v>
+        <v>822</v>
       </c>
       <c r="Z11" t="s">
-        <v>668</v>
+        <v>823</v>
       </c>
       <c r="AA11" t="s">
-        <v>669</v>
+        <v>824</v>
       </c>
       <c r="AB11" t="s">
-        <v>670</v>
+        <v>825</v>
       </c>
       <c r="AC11" t="s">
-        <v>671</v>
+        <v>826</v>
       </c>
       <c r="AD11" t="s">
-        <v>661</v>
+        <v>816</v>
       </c>
       <c r="AE11" t="s">
-        <v>672</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>673</v>
+        <v>828</v>
       </c>
       <c r="B12" t="s">
-        <v>674</v>
+        <v>829</v>
       </c>
       <c r="C12" t="s">
-        <v>675</v>
+        <v>830</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>831</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>832</v>
       </c>
       <c r="F12" t="s">
-        <v>678</v>
+        <v>833</v>
       </c>
       <c r="G12" t="s">
-        <v>679</v>
+        <v>834</v>
       </c>
       <c r="H12" t="s">
-        <v>680</v>
+        <v>835</v>
       </c>
       <c r="I12" t="s">
-        <v>681</v>
+        <v>836</v>
       </c>
       <c r="J12" t="s">
-        <v>682</v>
+        <v>837</v>
       </c>
       <c r="K12" t="s">
-        <v>683</v>
+        <v>838</v>
       </c>
       <c r="L12" t="s">
-        <v>684</v>
+        <v>839</v>
       </c>
       <c r="M12" t="s">
-        <v>685</v>
+        <v>840</v>
       </c>
       <c r="N12" t="s">
-        <v>686</v>
+        <v>841</v>
       </c>
       <c r="O12" t="s">
-        <v>687</v>
+        <v>842</v>
       </c>
       <c r="P12" t="s">
-        <v>688</v>
+        <v>843</v>
       </c>
       <c r="Q12" t="s">
-        <v>689</v>
+        <v>844</v>
       </c>
       <c r="R12" t="s">
-        <v>690</v>
+        <v>845</v>
       </c>
       <c r="S12" t="s">
-        <v>691</v>
+        <v>846</v>
       </c>
       <c r="T12" t="s">
-        <v>692</v>
+        <v>847</v>
       </c>
       <c r="U12" t="s">
-        <v>693</v>
+        <v>848</v>
       </c>
       <c r="V12" t="s">
-        <v>694</v>
+        <v>849</v>
       </c>
       <c r="W12" t="s">
-        <v>695</v>
+        <v>850</v>
       </c>
       <c r="X12" t="s">
-        <v>696</v>
+        <v>851</v>
       </c>
       <c r="Y12" t="s">
-        <v>697</v>
+        <v>852</v>
       </c>
       <c r="Z12" t="s">
-        <v>698</v>
+        <v>853</v>
       </c>
       <c r="AA12" t="s">
-        <v>699</v>
+        <v>854</v>
       </c>
       <c r="AB12" t="s">
-        <v>700</v>
+        <v>855</v>
       </c>
       <c r="AC12" t="s">
-        <v>701</v>
+        <v>856</v>
       </c>
       <c r="AD12" t="s">
-        <v>702</v>
+        <v>857</v>
       </c>
       <c r="AE12" t="s">
-        <v>703</v>
+        <v>858</v>
       </c>
       <c r="AF12" t="s">
-        <v>704</v>
+        <v>859</v>
       </c>
       <c r="AG12" t="s">
-        <v>705</v>
+        <v>860</v>
       </c>
       <c r="AH12" t="s">
-        <v>706</v>
+        <v>861</v>
       </c>
       <c r="AI12" t="s">
-        <v>675</v>
+        <v>830</v>
       </c>
       <c r="AJ12" t="s">
-        <v>707</v>
+        <v>862</v>
       </c>
       <c r="AK12" t="s">
-        <v>708</v>
+        <v>863</v>
       </c>
       <c r="AL12" t="s">
-        <v>709</v>
+        <v>864</v>
       </c>
       <c r="AM12" t="s">
-        <v>710</v>
+        <v>865</v>
       </c>
       <c r="AN12" t="s">
-        <v>711</v>
+        <v>866</v>
       </c>
       <c r="AO12" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="AP12" t="s">
-        <v>713</v>
+        <v>868</v>
       </c>
       <c r="AQ12" t="s">
-        <v>714</v>
+        <v>869</v>
       </c>
       <c r="AR12" t="s">
-        <v>715</v>
+        <v>870</v>
       </c>
       <c r="AS12" t="s">
-        <v>716</v>
+        <v>871</v>
       </c>
       <c r="AT12" t="s">
-        <v>717</v>
+        <v>872</v>
       </c>
       <c r="AU12" t="s">
-        <v>674</v>
+        <v>829</v>
       </c>
       <c r="AV12" t="s">
-        <v>718</v>
+        <v>873</v>
       </c>
       <c r="AW12" t="s">
-        <v>719</v>
+        <v>874</v>
       </c>
       <c r="AX12" t="s">
-        <v>720</v>
+        <v>875</v>
       </c>
       <c r="AY12" t="s">
-        <v>721</v>
+        <v>876</v>
       </c>
       <c r="AZ12" t="s">
-        <v>722</v>
+        <v>877</v>
       </c>
       <c r="BA12" t="s">
-        <v>723</v>
+        <v>878</v>
       </c>
       <c r="BB12" t="s">
-        <v>724</v>
+        <v>879</v>
       </c>
       <c r="BC12" t="s">
-        <v>725</v>
+        <v>880</v>
       </c>
       <c r="BD12" t="s">
-        <v>726</v>
+        <v>881</v>
       </c>
       <c r="BE12" t="s">
-        <v>700</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>882</v>
       </c>
       <c r="B13" t="s">
-        <v>728</v>
+        <v>883</v>
       </c>
       <c r="C13" t="s">
-        <v>729</v>
+        <v>884</v>
       </c>
       <c r="D13" t="s">
-        <v>730</v>
+        <v>885</v>
       </c>
       <c r="E13" t="s">
-        <v>731</v>
+        <v>886</v>
       </c>
       <c r="F13" t="s">
-        <v>732</v>
+        <v>887</v>
       </c>
       <c r="G13" t="s">
-        <v>733</v>
+        <v>888</v>
       </c>
       <c r="H13" t="s">
-        <v>734</v>
+        <v>889</v>
       </c>
       <c r="I13" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="J13" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="K13" t="s">
-        <v>737</v>
+        <v>892</v>
       </c>
       <c r="L13" t="s">
-        <v>738</v>
+        <v>893</v>
       </c>
       <c r="M13" t="s">
-        <v>739</v>
+        <v>894</v>
       </c>
       <c r="N13" t="s">
-        <v>740</v>
+        <v>895</v>
       </c>
       <c r="O13" t="s">
-        <v>741</v>
+        <v>896</v>
       </c>
       <c r="P13" t="s">
-        <v>742</v>
+        <v>897</v>
       </c>
       <c r="Q13" t="s">
-        <v>743</v>
+        <v>898</v>
       </c>
       <c r="R13" t="s">
-        <v>744</v>
+        <v>899</v>
       </c>
       <c r="S13" t="s">
-        <v>745</v>
+        <v>900</v>
       </c>
       <c r="T13" t="s">
-        <v>746</v>
+        <v>901</v>
       </c>
       <c r="U13" t="s">
-        <v>747</v>
+        <v>902</v>
       </c>
       <c r="V13" t="s">
-        <v>748</v>
+        <v>903</v>
       </c>
       <c r="W13" t="s">
-        <v>749</v>
+        <v>904</v>
       </c>
       <c r="X13" t="s">
-        <v>750</v>
+        <v>905</v>
       </c>
       <c r="Y13" t="s">
-        <v>751</v>
+        <v>906</v>
       </c>
       <c r="Z13" t="s">
-        <v>752</v>
+        <v>907</v>
       </c>
       <c r="AA13" t="s">
-        <v>753</v>
+        <v>908</v>
       </c>
       <c r="AB13" t="s">
-        <v>754</v>
+        <v>909</v>
       </c>
       <c r="AC13" t="s">
-        <v>755</v>
+        <v>910</v>
       </c>
       <c r="AD13" t="s">
-        <v>756</v>
+        <v>911</v>
       </c>
       <c r="AE13" t="s">
-        <v>757</v>
+        <v>912</v>
       </c>
       <c r="AF13" t="s">
-        <v>758</v>
+        <v>913</v>
       </c>
       <c r="AG13" t="s">
-        <v>759</v>
+        <v>914</v>
       </c>
       <c r="AH13" t="s">
-        <v>760</v>
+        <v>915</v>
       </c>
       <c r="AI13" t="s">
-        <v>761</v>
+        <v>916</v>
       </c>
       <c r="AJ13" t="s">
-        <v>762</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>763</v>
+        <v>918</v>
       </c>
       <c r="B14" t="s">
-        <v>764</v>
+        <v>919</v>
       </c>
       <c r="C14" t="s">
-        <v>765</v>
+        <v>920</v>
       </c>
       <c r="D14" t="s">
-        <v>766</v>
+        <v>921</v>
       </c>
       <c r="E14" t="s">
-        <v>767</v>
+        <v>922</v>
       </c>
       <c r="F14" t="s">
-        <v>768</v>
+        <v>923</v>
       </c>
       <c r="G14" t="s">
-        <v>769</v>
+        <v>924</v>
       </c>
       <c r="H14" t="s">
-        <v>770</v>
+        <v>925</v>
       </c>
       <c r="I14" t="s">
-        <v>771</v>
+        <v>926</v>
       </c>
       <c r="J14" t="s">
-        <v>772</v>
+        <v>927</v>
       </c>
       <c r="K14" t="s">
-        <v>773</v>
+        <v>928</v>
       </c>
       <c r="L14" t="s">
-        <v>774</v>
+        <v>929</v>
       </c>
       <c r="M14" t="s">
-        <v>775</v>
+        <v>930</v>
       </c>
       <c r="N14" t="s">
-        <v>776</v>
+        <v>931</v>
       </c>
       <c r="O14" t="s">
-        <v>777</v>
+        <v>932</v>
       </c>
       <c r="P14" t="s">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="Q14" t="s">
-        <v>779</v>
+        <v>934</v>
       </c>
       <c r="R14" t="s">
-        <v>780</v>
+        <v>935</v>
       </c>
       <c r="S14" t="s">
-        <v>781</v>
+        <v>936</v>
       </c>
       <c r="T14" t="s">
-        <v>782</v>
+        <v>937</v>
       </c>
       <c r="U14" t="s">
-        <v>783</v>
+        <v>938</v>
       </c>
       <c r="V14" t="s">
-        <v>784</v>
+        <v>939</v>
       </c>
       <c r="W14" t="s">
-        <v>785</v>
+        <v>940</v>
       </c>
       <c r="X14" t="s">
-        <v>786</v>
+        <v>941</v>
       </c>
       <c r="Y14" t="s">
-        <v>787</v>
+        <v>942</v>
       </c>
       <c r="Z14" t="s">
-        <v>788</v>
+        <v>943</v>
       </c>
       <c r="AA14" t="s">
-        <v>789</v>
+        <v>944</v>
       </c>
       <c r="AB14" t="s">
-        <v>790</v>
+        <v>945</v>
       </c>
       <c r="AC14" t="s">
-        <v>791</v>
+        <v>946</v>
       </c>
       <c r="AD14" t="s">
-        <v>792</v>
+        <v>947</v>
       </c>
       <c r="AE14" t="s">
-        <v>793</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>794</v>
+        <v>949</v>
       </c>
       <c r="B15" t="s">
-        <v>795</v>
+        <v>950</v>
       </c>
       <c r="C15" t="s">
-        <v>796</v>
+        <v>951</v>
       </c>
       <c r="D15" t="s">
-        <v>797</v>
+        <v>952</v>
       </c>
       <c r="E15" t="s">
-        <v>798</v>
+        <v>953</v>
       </c>
       <c r="F15" t="s">
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>799</v>
+        <v>954</v>
       </c>
       <c r="H15" t="s">
-        <v>800</v>
+        <v>955</v>
       </c>
       <c r="I15" t="s">
-        <v>801</v>
+        <v>956</v>
       </c>
       <c r="J15" t="s">
-        <v>802</v>
+        <v>957</v>
       </c>
       <c r="K15" t="s">
-        <v>803</v>
+        <v>958</v>
       </c>
       <c r="L15" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83">
+      <c r="A16" t="s">
+        <v>960</v>
+      </c>
+      <c r="B16" t="s">
+        <v>823</v>
+      </c>
+      <c r="C16" t="s">
+        <v>813</v>
+      </c>
+      <c r="D16" t="s">
+        <v>961</v>
+      </c>
+      <c r="E16" t="s">
+        <v>962</v>
+      </c>
+      <c r="F16" t="s">
+        <v>963</v>
+      </c>
+      <c r="G16" t="s">
+        <v>964</v>
+      </c>
+      <c r="H16" t="s">
+        <v>807</v>
+      </c>
+      <c r="I16" t="s">
+        <v>965</v>
+      </c>
+      <c r="J16" t="s">
+        <v>966</v>
+      </c>
+      <c r="K16" t="s">
+        <v>967</v>
+      </c>
+      <c r="L16" t="s">
+        <v>968</v>
+      </c>
+      <c r="M16" t="s">
+        <v>969</v>
+      </c>
+      <c r="N16" t="s">
+        <v>664</v>
+      </c>
+      <c r="O16" t="s">
+        <v>970</v>
+      </c>
+      <c r="P16" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>334</v>
+      </c>
+      <c r="R16" t="s">
+        <v>972</v>
+      </c>
+      <c r="S16" t="s">
+        <v>973</v>
+      </c>
+      <c r="T16" t="s">
+        <v>974</v>
+      </c>
+      <c r="U16" t="s">
+        <v>975</v>
+      </c>
+      <c r="V16" t="s">
+        <v>266</v>
+      </c>
+      <c r="W16" t="s">
+        <v>976</v>
+      </c>
+      <c r="X16" t="s">
+        <v>977</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>978</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>979</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>980</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>807</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>981</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>983</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>984</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>985</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>827</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>823</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>986</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>961</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>987</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>813</v>
+      </c>
+      <c r="AO16" t="s">
         <v>804</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>988</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>989</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>990</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>966</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>991</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>992</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>993</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>641</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>994</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>995</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>996</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>339</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>997</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>998</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>999</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>375</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>339</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/btpy/src/btpy/res/name_male_data.xlsx
+++ b/btpy/src/btpy/res/name_male_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="5867"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1025">
   <si>
     <t>russian</t>
   </si>
@@ -2424,6 +2424,24 @@
   </si>
   <si>
     <t>Zoel</t>
+  </si>
+  <si>
+    <t>Paco</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Americo</t>
+  </si>
+  <si>
+    <t>Severo</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
+    <t>Pelayo</t>
   </si>
   <si>
     <t>turkish</t>
@@ -4027,10 +4045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:GS16"/>
+  <dimension ref="A2:GY16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="CE16" sqref="CE16"/>
+    <sheetView tabSelected="1" topLeftCell="GL1" workbookViewId="0">
+      <selection activeCell="GY8" sqref="GY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6040,7 +6058,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:201">
+    <row r="10" spans="1:207">
       <c r="A10" t="s">
         <v>623</v>
       </c>
@@ -6643,669 +6661,687 @@
       </c>
       <c r="GS10" t="s">
         <v>798</v>
+      </c>
+      <c r="GT10" t="s">
+        <v>799</v>
+      </c>
+      <c r="GU10" t="s">
+        <v>800</v>
+      </c>
+      <c r="GV10" t="s">
+        <v>801</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>802</v>
+      </c>
+      <c r="GX10" t="s">
+        <v>803</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B11" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C11" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D11" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="E11" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="G11" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="H11" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="I11" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="J11" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="K11" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="L11" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="M11" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="N11" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="O11" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="P11" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="Q11" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="R11" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="S11" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="T11" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="U11" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="V11" t="s">
         <v>214</v>
       </c>
       <c r="W11" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="X11" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="Y11" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>832</v>
+      </c>
+      <c r="AD11" t="s">
         <v>822</v>
       </c>
-      <c r="Z11" t="s">
-        <v>823</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>825</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>826</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>816</v>
-      </c>
       <c r="AE11" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B12" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C12" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D12" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="E12" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F12" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="G12" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="H12" t="s">
+        <v>841</v>
+      </c>
+      <c r="I12" t="s">
+        <v>842</v>
+      </c>
+      <c r="J12" t="s">
+        <v>843</v>
+      </c>
+      <c r="K12" t="s">
+        <v>844</v>
+      </c>
+      <c r="L12" t="s">
+        <v>845</v>
+      </c>
+      <c r="M12" t="s">
+        <v>846</v>
+      </c>
+      <c r="N12" t="s">
+        <v>847</v>
+      </c>
+      <c r="O12" t="s">
+        <v>848</v>
+      </c>
+      <c r="P12" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>850</v>
+      </c>
+      <c r="R12" t="s">
+        <v>851</v>
+      </c>
+      <c r="S12" t="s">
+        <v>852</v>
+      </c>
+      <c r="T12" t="s">
+        <v>853</v>
+      </c>
+      <c r="U12" t="s">
+        <v>854</v>
+      </c>
+      <c r="V12" t="s">
+        <v>855</v>
+      </c>
+      <c r="W12" t="s">
+        <v>856</v>
+      </c>
+      <c r="X12" t="s">
+        <v>857</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>860</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>861</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>862</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>863</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>864</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>865</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>866</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>836</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>868</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>869</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>870</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>871</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>872</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>874</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>875</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>876</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>877</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>878</v>
+      </c>
+      <c r="AU12" t="s">
         <v>835</v>
       </c>
-      <c r="I12" t="s">
-        <v>836</v>
-      </c>
-      <c r="J12" t="s">
-        <v>837</v>
-      </c>
-      <c r="K12" t="s">
-        <v>838</v>
-      </c>
-      <c r="L12" t="s">
-        <v>839</v>
-      </c>
-      <c r="M12" t="s">
-        <v>840</v>
-      </c>
-      <c r="N12" t="s">
-        <v>841</v>
-      </c>
-      <c r="O12" t="s">
-        <v>842</v>
-      </c>
-      <c r="P12" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>844</v>
-      </c>
-      <c r="R12" t="s">
-        <v>845</v>
-      </c>
-      <c r="S12" t="s">
-        <v>846</v>
-      </c>
-      <c r="T12" t="s">
-        <v>847</v>
-      </c>
-      <c r="U12" t="s">
-        <v>848</v>
-      </c>
-      <c r="V12" t="s">
-        <v>849</v>
-      </c>
-      <c r="W12" t="s">
-        <v>850</v>
-      </c>
-      <c r="X12" t="s">
-        <v>851</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>852</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>853</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>854</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>855</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>857</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>858</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>859</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>860</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AV12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>880</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>881</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>882</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>883</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>884</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>885</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>886</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>887</v>
+      </c>
+      <c r="BE12" t="s">
         <v>861</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>830</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>862</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>863</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>864</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>865</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>866</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>867</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>868</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>869</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>870</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>871</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>872</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>829</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>873</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>874</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>875</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>876</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>877</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>878</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>879</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>880</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>881</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="B13" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C13" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D13" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E13" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="F13" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="G13" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H13" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="I13" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="J13" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="K13" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="L13" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="M13" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="N13" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="O13" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="P13" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="Q13" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="R13" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="S13" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="T13" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="U13" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="V13" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="W13" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="X13" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="Y13" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="Z13" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="AA13" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="AB13" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="AC13" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="AD13" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="AE13" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="AF13" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="AG13" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="AH13" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="AI13" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="AJ13" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="B14" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C14" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D14" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E14" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="F14" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="G14" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H14" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="I14" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="J14" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="K14" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="L14" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="M14" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="N14" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="O14" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="P14" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="Q14" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="R14" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="S14" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="T14" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="U14" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="V14" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="W14" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="X14" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="Y14" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="Z14" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="AA14" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="AB14" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="AC14" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="AD14" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="AE14" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="B15" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="C15" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="D15" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="E15" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="F15" t="s">
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H15" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="I15" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="J15" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="K15" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="L15" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:83">
       <c r="A16" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B16" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C16" t="s">
+        <v>819</v>
+      </c>
+      <c r="D16" t="s">
+        <v>967</v>
+      </c>
+      <c r="E16" t="s">
+        <v>968</v>
+      </c>
+      <c r="F16" t="s">
+        <v>969</v>
+      </c>
+      <c r="G16" t="s">
+        <v>970</v>
+      </c>
+      <c r="H16" t="s">
         <v>813</v>
       </c>
-      <c r="D16" t="s">
-        <v>961</v>
-      </c>
-      <c r="E16" t="s">
-        <v>962</v>
-      </c>
-      <c r="F16" t="s">
-        <v>963</v>
-      </c>
-      <c r="G16" t="s">
-        <v>964</v>
-      </c>
-      <c r="H16" t="s">
-        <v>807</v>
-      </c>
       <c r="I16" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="J16" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="K16" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="L16" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="M16" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="N16" t="s">
         <v>664</v>
       </c>
       <c r="O16" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="P16" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="Q16" t="s">
         <v>334</v>
       </c>
       <c r="R16" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="S16" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="T16" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="U16" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="V16" t="s">
         <v>266</v>
       </c>
       <c r="W16" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="X16" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="Y16" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="Z16" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="AA16" t="s">
         <v>634</v>
       </c>
       <c r="AB16" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="AC16" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="AD16" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="AE16" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AF16" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="AG16" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="AH16" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="AI16" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="AJ16" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="AK16" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="AL16" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="AM16" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="AN16" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="AO16" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="AP16" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="AQ16" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="AR16" t="s">
         <v>334</v>
       </c>
       <c r="AS16" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="AT16" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="AU16" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="AV16" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="AW16" t="s">
         <v>210</v>
       </c>
       <c r="AX16" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="AY16" t="s">
         <v>641</v>
@@ -7314,13 +7350,13 @@
         <v>6</v>
       </c>
       <c r="BA16" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="BB16" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="BC16" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="BD16" t="s">
         <v>291</v>
@@ -7329,87 +7365,87 @@
         <v>339</v>
       </c>
       <c r="BF16" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="BG16" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="BH16" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="BI16" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="BJ16" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="BK16" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="BL16" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="BM16" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="BN16" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="BO16" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="BP16" t="s">
         <v>375</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="BR16" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="BS16" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="BT16" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="BU16" t="s">
         <v>339</v>
       </c>
       <c r="BV16" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="BW16" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="BX16" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="BY16" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="CA16" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="CB16" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="CC16" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="CD16" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="CE16" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A10:$XFD10">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/btpy/src/btpy/res/name_male_data.xlsx
+++ b/btpy/src/btpy/res/name_male_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1181">
   <si>
     <t>russian</t>
   </si>
@@ -2801,6 +2801,222 @@
     <t>Tanjiro</t>
   </si>
   <si>
+    <t>Katsushika</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Nijiro</t>
+  </si>
+  <si>
+    <t>Yoshiki</t>
+  </si>
+  <si>
+    <t>Hayao</t>
+  </si>
+  <si>
+    <t>Shigeru</t>
+  </si>
+  <si>
+    <t>Yoko</t>
+  </si>
+  <si>
+    <t>Akihito</t>
+  </si>
+  <si>
+    <t>Hirohito</t>
+  </si>
+  <si>
+    <t>Akira</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
+  </si>
+  <si>
+    <t>Shinz</t>
+  </si>
+  <si>
+    <t>Kae</t>
+  </si>
+  <si>
+    <t>Kento</t>
+  </si>
+  <si>
+    <t>Kendo</t>
+  </si>
+  <si>
+    <t>Hiroshi</t>
+  </si>
+  <si>
+    <t>Korin</t>
+  </si>
+  <si>
+    <t>Takashi</t>
+  </si>
+  <si>
+    <t>Kakashi</t>
+  </si>
+  <si>
+    <t>Yoshimoto</t>
+  </si>
+  <si>
+    <t>Kazuo</t>
+  </si>
+  <si>
+    <t>Shinro</t>
+  </si>
+  <si>
+    <t>Hiroaki</t>
+  </si>
+  <si>
+    <t>Toshio</t>
+  </si>
+  <si>
+    <t>Monzo</t>
+  </si>
+  <si>
+    <t>Masafumi</t>
+  </si>
+  <si>
+    <t>Kosaku</t>
+  </si>
+  <si>
+    <t>Boshiro</t>
+  </si>
+  <si>
+    <t>Enomoto</t>
+  </si>
+  <si>
+    <t>Inoue</t>
+  </si>
+  <si>
+    <t>Hikojiro</t>
+  </si>
+  <si>
+    <t>Takatsugu</t>
+  </si>
+  <si>
+    <t>Kabayama</t>
+  </si>
+  <si>
+    <t>Kakuji</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Keiji</t>
+  </si>
+  <si>
+    <t>Mineichi</t>
+  </si>
+  <si>
+    <t>Takeo</t>
+  </si>
+  <si>
+    <t>Ryu</t>
+  </si>
+  <si>
+    <t>Ryunosuke</t>
+  </si>
+  <si>
+    <t>Gunichi</t>
+  </si>
+  <si>
+    <t>Chuichi</t>
+  </si>
+  <si>
+    <t>Shoji</t>
+  </si>
+  <si>
+    <t>Kondo</t>
+  </si>
+  <si>
+    <t>Jisaku</t>
+  </si>
+  <si>
+    <t>Keisuke</t>
+  </si>
+  <si>
+    <t>Takijiro</t>
+  </si>
+  <si>
+    <t>Jisaburo</t>
+  </si>
+  <si>
+    <t>Sanemi</t>
+  </si>
+  <si>
+    <t>Inosuke</t>
+  </si>
+  <si>
+    <t>Giyu</t>
+  </si>
+  <si>
+    <t>Zenitsu</t>
+  </si>
+  <si>
+    <t>Tokito</t>
+  </si>
+  <si>
+    <t>Akaza</t>
+  </si>
+  <si>
+    <t>Genya</t>
+  </si>
+  <si>
+    <t>Muzan</t>
+  </si>
+  <si>
+    <t>Kyojuro</t>
+  </si>
+  <si>
+    <t>Obanai</t>
+  </si>
+  <si>
+    <t>Sakonji</t>
+  </si>
+  <si>
+    <t>Neji</t>
+  </si>
+  <si>
+    <t>Shikamaru</t>
+  </si>
+  <si>
+    <t>Nagato</t>
+  </si>
+  <si>
+    <t>Obito</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Kiba</t>
+  </si>
+  <si>
+    <t>Miyamoto</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Shinmen</t>
+  </si>
+  <si>
+    <t>Musashi</t>
+  </si>
+  <si>
+    <t>Shiro</t>
+  </si>
+  <si>
+    <t>Taira</t>
+  </si>
+  <si>
+    <t>Utagawa</t>
+  </si>
+  <si>
     <t>polinesian</t>
   </si>
   <si>
@@ -3102,6 +3318,258 @@
   </si>
   <si>
     <t>Wojciech</t>
+  </si>
+  <si>
+    <t>hebrew</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Esdras</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Moshe</t>
+  </si>
+  <si>
+    <t>Natan</t>
+  </si>
+  <si>
+    <t>Barack</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Carmelo</t>
+  </si>
+  <si>
+    <t>Zev</t>
+  </si>
+  <si>
+    <t>Baruc</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Ezequiel</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Timoteo</t>
+  </si>
+  <si>
+    <t>Abba</t>
+  </si>
+  <si>
+    <t>Aharon</t>
+  </si>
+  <si>
+    <t>Akiva</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alon</t>
+  </si>
+  <si>
+    <t>Amram</t>
+  </si>
+  <si>
+    <t>Arie</t>
+  </si>
+  <si>
+    <t>Avigdor</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>Azriel</t>
+  </si>
+  <si>
+    <t>Baruj</t>
+  </si>
+  <si>
+    <t>Ben Tzion</t>
+  </si>
+  <si>
+    <t>Berel</t>
+  </si>
+  <si>
+    <t>Betzalel</t>
+  </si>
+  <si>
+    <t>Boaz</t>
+  </si>
+  <si>
+    <t>Calev</t>
+  </si>
+  <si>
+    <t>Carmi</t>
+  </si>
+  <si>
+    <t>Doron</t>
+  </si>
+  <si>
+    <t>Ehud</t>
+  </si>
+  <si>
+    <t>Dov</t>
+  </si>
+  <si>
+    <t>Eitan</t>
+  </si>
+  <si>
+    <t>Elazar</t>
+  </si>
+  <si>
+    <t>Eljanan</t>
+  </si>
+  <si>
+    <t>Eldad</t>
+  </si>
+  <si>
+    <t>Elimelej</t>
+  </si>
+  <si>
+    <t>Elisha</t>
+  </si>
+  <si>
+    <t>Eliakim</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Faivel</t>
+  </si>
+  <si>
+    <t>Fishel</t>
+  </si>
+  <si>
+    <t>Gad</t>
+  </si>
+  <si>
+    <t>Gamliel</t>
+  </si>
+  <si>
+    <t>Gershon</t>
+  </si>
+  <si>
+    <t>Gidon</t>
+  </si>
+  <si>
+    <t>Hillel</t>
+  </si>
+  <si>
+    <t>Hirch</t>
+  </si>
+  <si>
+    <t>Lerajmiel</t>
+  </si>
+  <si>
+    <t>Ilan</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Itsjak</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Issur</t>
+  </si>
+  <si>
+    <t>Itamar</t>
+  </si>
+  <si>
+    <t>Janan</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Janoj</t>
+  </si>
+  <si>
+    <t>Kalman</t>
+  </si>
+  <si>
+    <t>Kalonimos</t>
+  </si>
+  <si>
+    <t>Leib</t>
+  </si>
+  <si>
+    <t>Lior</t>
+  </si>
+  <si>
+    <t>Mendel</t>
+  </si>
+  <si>
+    <t>Menashe</t>
+  </si>
+  <si>
+    <t>Mijael</t>
+  </si>
+  <si>
+    <t>Mordejai</t>
+  </si>
+  <si>
+    <t>Natanel</t>
+  </si>
+  <si>
+    <t>Nejemia</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Shabtai</t>
+  </si>
+  <si>
+    <t>Shaul</t>
+  </si>
+  <si>
+    <t>Shalom</t>
+  </si>
+  <si>
+    <t>Shimon</t>
+  </si>
+  <si>
+    <t>Tamir</t>
+  </si>
+  <si>
+    <t>Uriel</t>
+  </si>
+  <si>
+    <t>Uziel</t>
+  </si>
+  <si>
+    <t>Yair</t>
+  </si>
+  <si>
+    <t>Yoel</t>
+  </si>
+  <si>
+    <t>Zalman</t>
   </si>
 </sst>
 </file>
@@ -3769,7 +4237,14 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4045,15 +4520,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:GY16"/>
+  <dimension ref="A2:GY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GL1" workbookViewId="0">
-      <selection activeCell="GY8" sqref="GY8"/>
+    <sheetView tabSelected="1" topLeftCell="CW4" workbookViewId="0">
+      <selection activeCell="DD13" sqref="DD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15.8888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
+    <col min="1" max="16384" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:58">
@@ -6949,7 +7424,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:108">
       <c r="A13" t="s">
         <v>888</v>
       </c>
@@ -7057,144 +7532,360 @@
       </c>
       <c r="AJ13" t="s">
         <v>923</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>924</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>925</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>926</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>927</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>928</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>929</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>930</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>931</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>932</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>933</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>934</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>935</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>936</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>937</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>938</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>939</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>940</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>941</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>942</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>943</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>944</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>945</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>946</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>947</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>948</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>949</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>950</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>951</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>952</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>953</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>954</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>955</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>956</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>957</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>958</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>959</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>960</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>961</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>962</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>963</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>964</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>965</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>966</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>967</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>968</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>969</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>970</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>971</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>972</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>973</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>974</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>975</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>976</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>977</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>978</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>979</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>980</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>981</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>982</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>983</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>984</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>985</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>986</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>987</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>988</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>989</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>990</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>991</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>992</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>993</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>994</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>924</v>
+        <v>996</v>
       </c>
       <c r="B14" t="s">
-        <v>925</v>
+        <v>997</v>
       </c>
       <c r="C14" t="s">
-        <v>926</v>
+        <v>998</v>
       </c>
       <c r="D14" t="s">
-        <v>927</v>
+        <v>999</v>
       </c>
       <c r="E14" t="s">
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>929</v>
+        <v>1001</v>
       </c>
       <c r="G14" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
       <c r="H14" t="s">
-        <v>931</v>
+        <v>1003</v>
       </c>
       <c r="I14" t="s">
-        <v>932</v>
+        <v>1004</v>
       </c>
       <c r="J14" t="s">
-        <v>933</v>
+        <v>1005</v>
       </c>
       <c r="K14" t="s">
-        <v>934</v>
+        <v>1006</v>
       </c>
       <c r="L14" t="s">
-        <v>935</v>
+        <v>1007</v>
       </c>
       <c r="M14" t="s">
-        <v>936</v>
+        <v>1008</v>
       </c>
       <c r="N14" t="s">
-        <v>937</v>
+        <v>1009</v>
       </c>
       <c r="O14" t="s">
-        <v>938</v>
+        <v>1010</v>
       </c>
       <c r="P14" t="s">
-        <v>939</v>
+        <v>1011</v>
       </c>
       <c r="Q14" t="s">
-        <v>940</v>
+        <v>1012</v>
       </c>
       <c r="R14" t="s">
-        <v>941</v>
+        <v>1013</v>
       </c>
       <c r="S14" t="s">
-        <v>942</v>
+        <v>1014</v>
       </c>
       <c r="T14" t="s">
-        <v>943</v>
+        <v>1015</v>
       </c>
       <c r="U14" t="s">
-        <v>944</v>
+        <v>1016</v>
       </c>
       <c r="V14" t="s">
-        <v>945</v>
+        <v>1017</v>
       </c>
       <c r="W14" t="s">
-        <v>946</v>
+        <v>1018</v>
       </c>
       <c r="X14" t="s">
-        <v>947</v>
+        <v>1019</v>
       </c>
       <c r="Y14" t="s">
-        <v>948</v>
+        <v>1020</v>
       </c>
       <c r="Z14" t="s">
-        <v>949</v>
+        <v>1021</v>
       </c>
       <c r="AA14" t="s">
-        <v>950</v>
+        <v>1022</v>
       </c>
       <c r="AB14" t="s">
-        <v>951</v>
+        <v>1023</v>
       </c>
       <c r="AC14" t="s">
-        <v>952</v>
+        <v>1024</v>
       </c>
       <c r="AD14" t="s">
-        <v>953</v>
+        <v>1025</v>
       </c>
       <c r="AE14" t="s">
-        <v>954</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>955</v>
+        <v>1027</v>
       </c>
       <c r="B15" t="s">
-        <v>956</v>
+        <v>1028</v>
       </c>
       <c r="C15" t="s">
-        <v>957</v>
+        <v>1029</v>
       </c>
       <c r="D15" t="s">
-        <v>958</v>
+        <v>1030</v>
       </c>
       <c r="E15" t="s">
-        <v>959</v>
+        <v>1031</v>
       </c>
       <c r="F15" t="s">
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>960</v>
+        <v>1032</v>
       </c>
       <c r="H15" t="s">
-        <v>961</v>
+        <v>1033</v>
       </c>
       <c r="I15" t="s">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="J15" t="s">
-        <v>963</v>
+        <v>1035</v>
       </c>
       <c r="K15" t="s">
-        <v>964</v>
+        <v>1036</v>
       </c>
       <c r="L15" t="s">
-        <v>965</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:83">
       <c r="A16" t="s">
-        <v>966</v>
+        <v>1038</v>
       </c>
       <c r="B16" t="s">
         <v>829</v>
@@ -7203,97 +7894,97 @@
         <v>819</v>
       </c>
       <c r="D16" t="s">
-        <v>967</v>
+        <v>1039</v>
       </c>
       <c r="E16" t="s">
-        <v>968</v>
+        <v>1040</v>
       </c>
       <c r="F16" t="s">
-        <v>969</v>
+        <v>1041</v>
       </c>
       <c r="G16" t="s">
-        <v>970</v>
+        <v>1042</v>
       </c>
       <c r="H16" t="s">
         <v>813</v>
       </c>
       <c r="I16" t="s">
-        <v>971</v>
+        <v>1043</v>
       </c>
       <c r="J16" t="s">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="K16" t="s">
-        <v>973</v>
+        <v>1045</v>
       </c>
       <c r="L16" t="s">
-        <v>974</v>
+        <v>1046</v>
       </c>
       <c r="M16" t="s">
-        <v>975</v>
+        <v>1047</v>
       </c>
       <c r="N16" t="s">
         <v>664</v>
       </c>
       <c r="O16" t="s">
-        <v>976</v>
+        <v>1048</v>
       </c>
       <c r="P16" t="s">
-        <v>977</v>
+        <v>1049</v>
       </c>
       <c r="Q16" t="s">
         <v>334</v>
       </c>
       <c r="R16" t="s">
-        <v>978</v>
+        <v>1050</v>
       </c>
       <c r="S16" t="s">
-        <v>979</v>
+        <v>1051</v>
       </c>
       <c r="T16" t="s">
-        <v>980</v>
+        <v>1052</v>
       </c>
       <c r="U16" t="s">
-        <v>981</v>
+        <v>1053</v>
       </c>
       <c r="V16" t="s">
         <v>266</v>
       </c>
       <c r="W16" t="s">
-        <v>982</v>
+        <v>1054</v>
       </c>
       <c r="X16" t="s">
-        <v>983</v>
+        <v>1055</v>
       </c>
       <c r="Y16" t="s">
-        <v>984</v>
+        <v>1056</v>
       </c>
       <c r="Z16" t="s">
-        <v>985</v>
+        <v>1057</v>
       </c>
       <c r="AA16" t="s">
         <v>634</v>
       </c>
       <c r="AB16" t="s">
-        <v>986</v>
+        <v>1058</v>
       </c>
       <c r="AC16" t="s">
         <v>813</v>
       </c>
       <c r="AD16" t="s">
-        <v>987</v>
+        <v>1059</v>
       </c>
       <c r="AE16" t="s">
-        <v>988</v>
+        <v>1060</v>
       </c>
       <c r="AF16" t="s">
-        <v>989</v>
+        <v>1061</v>
       </c>
       <c r="AG16" t="s">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="AH16" t="s">
-        <v>991</v>
+        <v>1063</v>
       </c>
       <c r="AI16" t="s">
         <v>833</v>
@@ -7302,13 +7993,13 @@
         <v>829</v>
       </c>
       <c r="AK16" t="s">
-        <v>992</v>
+        <v>1064</v>
       </c>
       <c r="AL16" t="s">
-        <v>967</v>
+        <v>1039</v>
       </c>
       <c r="AM16" t="s">
-        <v>993</v>
+        <v>1065</v>
       </c>
       <c r="AN16" t="s">
         <v>819</v>
@@ -7317,31 +8008,31 @@
         <v>810</v>
       </c>
       <c r="AP16" t="s">
-        <v>994</v>
+        <v>1066</v>
       </c>
       <c r="AQ16" t="s">
-        <v>995</v>
+        <v>1067</v>
       </c>
       <c r="AR16" t="s">
         <v>334</v>
       </c>
       <c r="AS16" t="s">
-        <v>996</v>
+        <v>1068</v>
       </c>
       <c r="AT16" t="s">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="AU16" t="s">
-        <v>997</v>
+        <v>1069</v>
       </c>
       <c r="AV16" t="s">
-        <v>998</v>
+        <v>1070</v>
       </c>
       <c r="AW16" t="s">
         <v>210</v>
       </c>
       <c r="AX16" t="s">
-        <v>999</v>
+        <v>1071</v>
       </c>
       <c r="AY16" t="s">
         <v>641</v>
@@ -7350,13 +8041,13 @@
         <v>6</v>
       </c>
       <c r="BA16" t="s">
-        <v>1000</v>
+        <v>1072</v>
       </c>
       <c r="BB16" t="s">
-        <v>1001</v>
+        <v>1073</v>
       </c>
       <c r="BC16" t="s">
-        <v>1002</v>
+        <v>1074</v>
       </c>
       <c r="BD16" t="s">
         <v>291</v>
@@ -7365,88 +8056,414 @@
         <v>339</v>
       </c>
       <c r="BF16" t="s">
-        <v>1003</v>
+        <v>1075</v>
       </c>
       <c r="BG16" t="s">
-        <v>1004</v>
+        <v>1076</v>
       </c>
       <c r="BH16" t="s">
-        <v>1005</v>
+        <v>1077</v>
       </c>
       <c r="BI16" t="s">
-        <v>1006</v>
+        <v>1078</v>
       </c>
       <c r="BJ16" t="s">
-        <v>1007</v>
+        <v>1079</v>
       </c>
       <c r="BK16" t="s">
-        <v>1008</v>
+        <v>1080</v>
       </c>
       <c r="BL16" t="s">
-        <v>1009</v>
+        <v>1081</v>
       </c>
       <c r="BM16" t="s">
-        <v>1010</v>
+        <v>1082</v>
       </c>
       <c r="BN16" t="s">
-        <v>1011</v>
+        <v>1083</v>
       </c>
       <c r="BO16" t="s">
-        <v>1012</v>
+        <v>1084</v>
       </c>
       <c r="BP16" t="s">
         <v>375</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1013</v>
+        <v>1085</v>
       </c>
       <c r="BR16" t="s">
-        <v>1014</v>
+        <v>1086</v>
       </c>
       <c r="BS16" t="s">
-        <v>1015</v>
+        <v>1087</v>
       </c>
       <c r="BT16" t="s">
-        <v>1016</v>
+        <v>1088</v>
       </c>
       <c r="BU16" t="s">
         <v>339</v>
       </c>
       <c r="BV16" t="s">
-        <v>1017</v>
+        <v>1089</v>
       </c>
       <c r="BW16" t="s">
-        <v>1018</v>
+        <v>1090</v>
       </c>
       <c r="BX16" t="s">
-        <v>1019</v>
+        <v>1091</v>
       </c>
       <c r="BY16" t="s">
-        <v>1014</v>
+        <v>1086</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1016</v>
+        <v>1088</v>
       </c>
       <c r="CA16" t="s">
-        <v>1020</v>
+        <v>1092</v>
       </c>
       <c r="CB16" t="s">
-        <v>1021</v>
+        <v>1093</v>
       </c>
       <c r="CC16" t="s">
-        <v>1022</v>
+        <v>1094</v>
       </c>
       <c r="CD16" t="s">
-        <v>1023</v>
+        <v>1095</v>
       </c>
       <c r="CE16" t="s">
-        <v>1024</v>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:106">
+      <c r="A17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>790</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S17" t="s">
+        <v>555</v>
+      </c>
+      <c r="T17" t="s">
+        <v>641</v>
+      </c>
+      <c r="U17" t="s">
+        <v>634</v>
+      </c>
+      <c r="V17" t="s">
+        <v>642</v>
+      </c>
+      <c r="W17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>987</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>240</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>644</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>727</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A10:$XFD10">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="$A13:$XFD13">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A17:$XFD17">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
